--- a/2015-05-19/Copy of Technical_Plan_19052015_2307.xlsx
+++ b/2015-05-19/Copy of Technical_Plan_19052015_2307.xlsx
@@ -17,6 +17,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$3:$I$42</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$3:$I$42</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$3:$I$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet1!$A$3:$I$42</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -270,7 +271,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,7 +293,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF3333"/>
-        <bgColor rgb="FFFF6600"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF3333"/>
       </patternFill>
     </fill>
     <fill>
@@ -364,7 +371,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -454,22 +461,26 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -538,7 +549,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFF2F2F2"/>
-      <rgbColor rgb="FFFF3333"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -581,7 +592,7 @@
       <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF3333"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -609,7 +620,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1440,15 +1451,15 @@
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="n">
         <v>4</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>12</v>
+      <c r="C37" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="D37" s="14" t="n">
         <v>42146</v>
@@ -1461,96 +1472,96 @@
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
     </row>
-    <row r="38" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="22" t="n">
+    <row r="38" s="27" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="24" t="n">
+      <c r="C38" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="25" t="n">
         <v>42146</v>
       </c>
-      <c r="E38" s="24" t="n">
+      <c r="E38" s="25" t="n">
         <v>42146</v>
       </c>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-    </row>
-    <row r="39" s="26" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="22" t="n">
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+    </row>
+    <row r="39" s="27" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="23" t="n">
         <v>6</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="24" t="n">
+      <c r="C39" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="25" t="n">
         <v>42149</v>
       </c>
-      <c r="E39" s="24" t="n">
+      <c r="E39" s="25" t="n">
         <v>42149</v>
       </c>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
     </row>
     <row r="40" s="21" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="27" t="n">
+      <c r="A40" s="28" t="n">
         <v>7</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="29" t="n">
+      <c r="C40" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="30" t="n">
         <v>42150</v>
       </c>
-      <c r="E40" s="29" t="n">
+      <c r="E40" s="30" t="n">
         <v>42151</v>
       </c>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="31"/>
-      <c r="B41" s="32" t="s">
+      <c r="A41" s="32"/>
+      <c r="B41" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="36" t="n">
+      <c r="A42" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="39" t="n">
-        <v>42143</v>
-      </c>
-      <c r="E42" s="39" t="n">
+      <c r="C42" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="40" t="n">
+        <v>42143</v>
+      </c>
+      <c r="E42" s="40" t="n">
         <v>42143</v>
       </c>
     </row>
